--- a/data/raw/darkbirth_customerList.xlsx
+++ b/data/raw/darkbirth_customerList.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,8 +541,10 @@
           <t>부평동</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -612,8 +614,10 @@
           <t>부평구전체,계양구전체</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -667,8 +671,10 @@
           <t>부평구전체</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -747,8 +753,10 @@
           <t>부평구</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -810,8 +818,10 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>1</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
@@ -881,8 +891,10 @@
           <t>산곡동</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -948,8 +960,10 @@
           <t>부평구,계양구</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1015,8 +1029,10 @@
           <t>부평동,산곡동,삼산동</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1082,8 +1098,10 @@
           <t>부평동</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1149,8 +1167,10 @@
           <t>부평동</t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1216,8 +1236,10 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>5</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1283,8 +1305,10 @@
           <t>1</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>1</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1350,8 +1374,10 @@
           <t>2</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>2</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1417,8 +1443,10 @@
           <t>부평구</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>1</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1484,8 +1512,10 @@
           <t>부평구,계양구,남동구</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>1</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1561,20 +1591,14 @@
           <t>10</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="G17" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1000</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
@@ -1600,6 +1624,142 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>정</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>스튜디오</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>010-7171-6746</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>부평구</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2-10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>200</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>스튜디오_01071716746</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>{"region":"부평구","floor":"2-10","area_real":"24","deposit":"3000","rent":"200","premium":"0"}</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>darkbirth@naver.com</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2025-08-18T05:59:29.229Z</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>오부장</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>부평시장역 베이커리카페</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>010-3450-2243</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>부평동</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>15-30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>부평시장역_베이커리카페_01034502243</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>{"region":"부평동","floor":"1","area_real":"15-30","deposit":"3000","rent":"200","premium":"2000"}</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>darkbirth@naver.com</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2025-08-18T07:42:56.623Z</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/raw/darkbirth_customerList.xlsx
+++ b/data/raw/darkbirth_customerList.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,14 +551,20 @@
           <t>10</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H2" t="n">
-        <v>200</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5000</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -624,14 +630,20 @@
           <t>10-80</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="n">
-        <v>500</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -681,14 +693,20 @@
           <t>80</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I4" t="n">
-        <v>30000</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -763,14 +781,20 @@
           <t>10</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I5" t="n">
-        <v>30000</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -824,14 +848,20 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H6" t="n">
-        <v>150</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5000</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -901,14 +931,20 @@
           <t>10</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>200</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5000</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -970,14 +1006,20 @@
           <t>20</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10000</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1039,14 +1081,20 @@
           <t>10</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H9" t="n">
-        <v>200</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3000</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1108,14 +1156,20 @@
           <t>20</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H10" t="n">
-        <v>200</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3000</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1177,14 +1231,20 @@
           <t>10</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H11" t="n">
-        <v>150</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10000</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1246,14 +1306,20 @@
           <t>1</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1315,14 +1381,20 @@
           <t>1</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1384,14 +1456,20 @@
           <t>2</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1453,14 +1531,20 @@
           <t>8</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H15" t="n">
-        <v>130</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3000</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1522,14 +1606,20 @@
           <t>10</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H16" t="n">
-        <v>200</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5000</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1591,14 +1681,20 @@
           <t>10</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1000</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
@@ -1656,14 +1752,20 @@
           <t>24</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H18" t="n">
-        <v>200</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
@@ -1760,6 +1862,282 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>이한신고문</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>주점</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>010-9979-3043</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>부평구</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-1-2</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0-4000</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0-150</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0-3000</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>주점_01099793043</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>{"region":"부평구","floor":"-1-2","area_real":"","deposit":"0-4000","rent":"0-150","premium":"0-3000"}</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>darkbirth@naver.com</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2025-08-23T08:05:51.266Z</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>이한신고문</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>주점</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>010-9979-3043</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>부평구</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-1-2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0-4000</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0-150</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0-2000</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>권보합4천</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>주점_01099793043</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>{"region":"부평구","floor":"-1-2","area_real":"30","deposit":"0-4000","rent":"0-150","premium":"0-2000"}</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>darkbirth@naver.com</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2025-08-23T08:16:51.641Z</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>정</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>김포부동산</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>010-9871-3355</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>부평구,계양구</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0-10000</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0-400</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>김포부동산_01098713355</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>{"region":"부평구,계양구","floor":"1","area_real":"60","deposit":"0-10000","rent":"0-400","premium":"0"}</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>darkbirth@naver.com</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2025-08-27T01:37:51.351Z</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>정</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>인력사무소</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>010-7990-9673</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>부평동</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2-10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>60-100</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0-600</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>인력사무소_01079909673</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>{"region":"부평동","floor":"2-10","area_real":"60-100","deposit":"","rent":"0-600","premium":""}</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>darkbirth@naver.com</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2025-08-27T02:34:49.421Z</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
